--- a/biology/Botanique/Frühlingsanlagen/Frühlingsanlagen.xlsx
+++ b/biology/Botanique/Frühlingsanlagen/Frühlingsanlagen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%BChlingsanlagen</t>
+          <t>Frühlingsanlagen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Frühlingsanlagen (littéralement, plantes de printemps) forment un parc situé dans le district de Au, dans la capitale bavaroise, Munich. 
 Ils s'étendent sur la rive droite de l'Isar, du pont des Wittelsbach / Humboldtstraße à la dérivation de la Kleine Isar au nord du pont de Reichenbach. Leur superficie est d'environ 16,3 ha, dont une grande bande d'eau de 835 m de long et 5,8 ha, qui appartient à l'Isar renaturé. 
